--- a/Data/Input/Pr.2 CitiesSample1.xlsx
+++ b/Data/Input/Pr.2 CitiesSample1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielBelciug\Downloads\Prezentari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielBelciug\Documents\GitHub\fwf-city-population-demo\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7E5B23-6501-41CD-BBEA-E4EFCBB54A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051145A1-99F9-4106-B40A-CD83761ECE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,10 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,18 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -434,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -454,7 +455,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -471,10 +472,10 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -491,7 +492,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -511,7 +512,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -531,7 +532,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -548,7 +549,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -566,7 +567,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -583,7 +584,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -599,7 +600,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -618,6 +619,9 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -625,6 +629,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010021EEEB9A1AC7124997C3A47E9FC1B98B" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32c9ac856d2d2fd79e0fd4c0e7aaa555">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="50f7d85b-f98c-445e-b58e-72d6269df11c" xmlns:ns3="2773402d-a253-4db6-8bd0-1165c16be02b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e55dc117eb00e409935f2a8a7bc26f4a" ns2:_="" ns3:_="">
     <xsd:import namespace="50f7d85b-f98c-445e-b58e-72d6269df11c"/>
@@ -829,15 +842,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -850,13 +854,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4042B3-2196-4148-AC03-6BD8FBA2B032}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6DFC2F7-207E-4CA1-89D8-94068479A372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6DFC2F7-207E-4CA1-89D8-94068479A372}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4042B3-2196-4148-AC03-6BD8FBA2B032}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="50f7d85b-f98c-445e-b58e-72d6269df11c"/>
+    <ds:schemaRef ds:uri="2773402d-a253-4db6-8bd0-1165c16be02b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D9D0B5-67B1-4EE0-B3C9-D3A43A8192A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D9D0B5-67B1-4EE0-B3C9-D3A43A8192A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2773402d-a253-4db6-8bd0-1165c16be02b"/>
+    <ds:schemaRef ds:uri="50f7d85b-f98c-445e-b58e-72d6269df11c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>